--- a/myproject/media/KMC_Student_Database.xlsx
+++ b/myproject/media/KMC_Student_Database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2875,6 +2875,377 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>124124</v>
+      </c>
+      <c r="B47" t="n">
+        <v>124124</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>absc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>423516</v>
+      </c>
+      <c r="B48" t="n">
+        <v>123</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>absc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>124112</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>423516</v>
+      </c>
+      <c r="B49" t="n">
+        <v>124124</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2412@email.com</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1241</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>423516</v>
+      </c>
+      <c r="B50" t="n">
+        <v>423516</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2412@email.com</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>423516</v>
+      </c>
+      <c r="B51" t="n">
+        <v>124124</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>absc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>423516</v>
+      </c>
+      <c r="B52" t="n">
+        <v>423516</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>absc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>423516423516</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>423516</v>
+      </c>
+      <c r="B53" t="n">
+        <v>423516</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>423516@gmail.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>423516</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/myproject/media/KMC_Student_Database.xlsx
+++ b/myproject/media/KMC_Student_Database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,8 +547,10 @@
       <c r="A3" t="n">
         <v>584627</v>
       </c>
-      <c r="B3" t="n">
-        <v>124653</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>124653</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -557,7 +559,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Anatomy 101</t>
+          <t>Anatomy 102</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1034,7 +1036,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Literature 300</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1054,7 +1056,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>English Literature</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1246,7 +1248,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Art History 204</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1266,7 +1268,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Art History</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1405,7 +1407,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sociology 411</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1425,7 +1427,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sociology</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1564,7 +1566,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Philosophy 320</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1584,7 +1586,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Philosophy</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1723,7 +1725,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>International Relations 301</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1743,7 +1745,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Political Science</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1776,7 +1778,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Economics 202</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1798,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Economics</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1829,7 +1831,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Media Studies 204</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1849,7 +1851,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Media and Communications</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1988,7 +1990,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Archaeology 300</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2010,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Archaeology</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2041,7 +2043,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Music Theory 201</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2061,7 +2063,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2200,7 +2202,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Political Science 220</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2220,7 +2222,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Political Science</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2253,7 +2255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Urban Planning 101</t>
+          <t>Anatomy 101</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2273,7 +2275,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Urban Studies</t>
+          <t>Anatomy</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,63 +2879,63 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>124124</v>
+        <v>1241241</v>
       </c>
       <c r="B47" t="n">
-        <v>124124</v>
+        <v>1241241</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>absc@gmail.com</t>
+          <t>alvexin4@gmail.com</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Austin Chan</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Bakersfield College</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Ball</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>423516</v>
+        <v>12</v>
       </c>
       <c r="B48" t="n">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2942,32 +2944,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>124112</t>
+          <t>12411</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2983,266 +2985,107 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>423516</v>
+        <v>123</v>
       </c>
       <c r="B49" t="n">
-        <v>124124</v>
+        <v>1241</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2412@email.com</t>
+          <t>214124@gmail.com</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>21421</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>241521</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>251512</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>5125125</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>12512</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1251</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>423516</v>
+        <v>124124124124</v>
       </c>
       <c r="B50" t="n">
-        <v>423516</v>
+        <v>2151251</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2412@email.com</t>
+          <t>12512512@gmail.com</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>423516</t>
+          <t>Skip</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>423516</t>
+          <t>Skip</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>423516</t>
+          <t>Skip</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>423516</t>
+          <t>Skip</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>423516</t>
+          <t>Skip</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>423516</t>
+          <t>Skip</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>423516</t>
+          <t>Skip</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>423516</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>423516</v>
-      </c>
-      <c r="B51" t="n">
-        <v>124124</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>absc@gmail.com</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>423516</v>
-      </c>
-      <c r="B52" t="n">
-        <v>423516</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>absc@gmail.com</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>423516423516</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>423516</v>
-      </c>
-      <c r="B53" t="n">
-        <v>423516</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>423516@gmail.com</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>423516</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>423516</t>
+          <t>Skip</t>
         </is>
       </c>
     </row>

--- a/myproject/media/KMC_Student_Database.xlsx
+++ b/myproject/media/KMC_Student_Database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,10 +547,8 @@
       <c r="A3" t="n">
         <v>584627</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>124653</t>
-        </is>
+      <c r="B3" t="n">
+        <v>124653</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2927,165 +2925,6 @@
       <c r="K47" t="inlineStr">
         <is>
           <t>Ball</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>12</v>
-      </c>
-      <c r="B48" t="n">
-        <v>12</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>absc@gmail.com</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>12411</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1211</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>1241</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>123</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1241</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>214124@gmail.com</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>21421</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>241521</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>251512</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>5125125</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>12512</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>1251</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>124124124124</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2151251</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>12512512@gmail.com</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Skip</t>
         </is>
       </c>
     </row>
